--- a/src-tauri/参数模板.xlsx
+++ b/src-tauri/参数模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="11880"/>
+    <workbookView windowWidth="28640" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>连接信息</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Port</t>
   </si>
   <si>
-    <t>192.168.1.7</t>
+    <t>192.168.1.6</t>
   </si>
   <si>
     <t>监控参数</t>
@@ -49,6 +49,9 @@
     <t>数据类型</t>
   </si>
   <si>
+    <t>寄存器地址</t>
+  </si>
+  <si>
     <t>电流</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>float32</t>
+  </si>
+  <si>
+    <t>保持寄存器</t>
   </si>
   <si>
     <t>电压</t>
@@ -79,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -94,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,8 +114,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,9 +160,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,15 +175,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,15 +227,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,62 +242,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,49 +270,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,72 +456,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,62 +466,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -550,6 +568,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -557,6 +586,39 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,24 +640,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,201 +687,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,16 +865,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1172,13 +1213,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.2211538461538" customWidth="1"/>
     <col min="2" max="2" width="12.9807692307692" customWidth="1"/>
@@ -1186,6 +1227,7 @@
     <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
     <col min="5" max="5" width="13.4615384615385" customWidth="1"/>
     <col min="6" max="6" width="14.7403846153846" customWidth="1"/>
+    <col min="7" max="7" width="14.2596153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1210,7 +1252,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,9 +1260,10 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1236,303 +1279,350 @@
       <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="7">
         <v>5</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="7">
         <v>6</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="7">
         <v>7</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="7">
         <v>8</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="7">
         <v>9</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="7">
         <v>15</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="7">
         <v>16</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7">
         <v>17</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7">
         <v>18</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="7">
         <v>19</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="7">
         <v>20</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7">
         <v>21</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7">
         <v>22</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="7">
         <v>23</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="7">
         <v>24</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="7">
         <v>25</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="7">
         <v>26</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="7">
         <v>27</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="7">
         <v>28</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="7">
         <v>29</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="7">
         <v>30</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="E35" s="12"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="7">
         <v>31</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36" s="12"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="7">
         <v>32</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="E37" s="12"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7">
         <v>33</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7">
         <v>34</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="E39" s="12"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="7">
         <v>35</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:F4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G40">
+      <formula1>"保持寄存器,输入寄存器"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F40">
       <formula1>"int16,int32,float32,double"</formula1>
     </dataValidation>

--- a/src-tauri/参数模板.xlsx
+++ b/src-tauri/参数模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>连接信息</t>
   </si>
@@ -31,6 +31,9 @@
     <t>监控参数</t>
   </si>
   <si>
+    <t>控制参数</t>
+  </si>
+  <si>
     <t>参数ID</t>
   </si>
   <si>
@@ -52,6 +55,21 @@
     <t>寄存器地址</t>
   </si>
   <si>
+    <t>曲线类型</t>
+  </si>
+  <si>
+    <t>幅值/值</t>
+  </si>
+  <si>
+    <t>偏移量</t>
+  </si>
+  <si>
+    <t>周期(s)</t>
+  </si>
+  <si>
+    <t>循环次数</t>
+  </si>
+  <si>
     <t>电流</t>
   </si>
   <si>
@@ -62,6 +80,9 @@
   </si>
   <si>
     <t>保持寄存器</t>
+  </si>
+  <si>
+    <t>正弦波</t>
   </si>
   <si>
     <t>电压</t>
@@ -243,7 +264,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,7 +291,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,14 +481,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -587,6 +602,37 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -698,10 +744,10 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,7 +780,7 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,19 +798,19 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -818,13 +864,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,11 +879,11 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +899,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -865,8 +914,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -887,6 +939,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1213,21 +1316,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="15.2211538461538" customWidth="1"/>
+    <col min="1" max="1" width="12.6634615384615" customWidth="1"/>
     <col min="2" max="2" width="12.9807692307692" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="15.5384615384615" customWidth="1"/>
     <col min="5" max="5" width="13.4615384615385" customWidth="1"/>
     <col min="6" max="6" width="14.7403846153846" customWidth="1"/>
     <col min="7" max="7" width="14.2596153846154" customWidth="1"/>
+    <col min="8" max="8" width="14.5769230769231" customWidth="1"/>
+    <col min="9" max="9" width="13.4615384615385" customWidth="1"/>
+    <col min="10" max="10" width="14.8942307692308" customWidth="1"/>
+    <col min="11" max="11" width="15.2307692307692" customWidth="1"/>
+    <col min="12" max="12" width="14.5769230769231" customWidth="1"/>
+    <col min="13" max="13" width="11.2115384615385" customWidth="1"/>
+    <col min="14" max="14" width="15.8653846153846" customWidth="1"/>
+    <col min="15" max="15" width="13.9326923076923" customWidth="1"/>
+    <col min="16" max="16" width="11.6923076923077" customWidth="1"/>
+    <col min="17" max="17" width="11.3653846153846" customWidth="1"/>
+    <col min="18" max="18" width="11.2115384615385" customWidth="1"/>
+    <col min="19" max="19" width="10.8942307692308" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1252,381 +1367,836 @@
         <v>502</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7">
+      <c r="G5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="7">
+      <c r="F6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="21">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>10</v>
+      </c>
+      <c r="R6" s="28">
+        <v>30</v>
+      </c>
+      <c r="S6" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7">
+      <c r="F7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="30">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>10</v>
+      </c>
+      <c r="R7" s="35">
+        <v>30</v>
+      </c>
+      <c r="S7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <v>4</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="14">
+        <v>4</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="30">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>10</v>
+      </c>
+      <c r="R8" s="35">
+        <v>30</v>
+      </c>
+      <c r="S8" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="8">
+        <v>4</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="16"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="8">
+        <v>5</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="16"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="8">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="8">
+        <v>6</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="16"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="8">
+        <v>7</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="8">
+        <v>7</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="16"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="8">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="8">
+        <v>8</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="16"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="8">
+        <v>9</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="16"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="16"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="8">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="8">
+        <v>11</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="8">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="8">
+        <v>12</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="16"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="8">
+        <v>13</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="8">
+        <v>13</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="8">
+        <v>14</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="8">
+        <v>14</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="16"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="8">
+        <v>15</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="8">
+        <v>15</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="16"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="8">
+        <v>16</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="8">
+        <v>16</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="16"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="8">
+        <v>17</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="8">
+        <v>17</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="16"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="8">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="8">
+        <v>18</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="16"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="8">
+        <v>19</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="8">
+        <v>19</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="16"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="8">
         <v>20</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7">
-        <v>5</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="7">
-        <v>6</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="7">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="7">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="7">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="7">
-        <v>10</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7">
-        <v>11</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
-        <v>12</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="7">
-        <v>13</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="7">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="7">
-        <v>15</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7">
-        <v>16</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="7">
-        <v>17</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7">
-        <v>18</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="7">
-        <v>19</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="7">
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="8">
         <v>20</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7">
+      <c r="I25" s="23"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="16"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="8">
         <v>21</v>
       </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7">
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="8">
+        <v>21</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="16"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="8">
         <v>22</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7">
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="8">
+        <v>22</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="16"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7">
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="8">
+        <v>23</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="16"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7">
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="8">
+        <v>24</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="16"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="8">
         <v>25</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="7">
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="8">
+        <v>25</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="16"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="8">
         <v>26</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="7">
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="8">
+        <v>26</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="8">
         <v>27</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7">
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="8">
+        <v>27</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="16"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="8">
         <v>28</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7">
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="8">
+        <v>28</v>
+      </c>
+      <c r="I33" s="23"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="16"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="8">
         <v>29</v>
       </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7">
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="8">
+        <v>29</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="16"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="8">
         <v>30</v>
       </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7">
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="8">
+        <v>30</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="16"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="8">
         <v>31</v>
       </c>
-      <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="7">
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="8">
+        <v>31</v>
+      </c>
+      <c r="I36" s="23"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="16"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="8">
         <v>32</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="7">
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="8">
+        <v>32</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="16"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="8">
         <v>33</v>
       </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="14"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7">
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="8">
+        <v>33</v>
+      </c>
+      <c r="I38" s="23"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="16"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="8">
         <v>34</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="14"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="7">
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="8">
+        <v>34</v>
+      </c>
+      <c r="I39" s="23"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="16"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="8">
         <v>35</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="16"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="8">
+        <v>35</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:S4"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G40">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G40 N6:N40">
       <formula1>"保持寄存器,输入寄存器"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O40">
+      <formula1>"正弦波,方波,恒值"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F40 M6:M40">
       <formula1>"int16,int32,float32,double"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D40 K6:K40">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
